--- a/biology/Médecine/Wittmann_Patch/Wittmann_Patch.xlsx
+++ b/biology/Médecine/Wittmann_Patch/Wittmann_Patch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Wittmann Patch est un outil médicinal, inspiré des bardanes ; il sert provisoirement d’aponévrose abdominale dans les cas où l'abdomen ne peut pas être fermé pour cause de syndrome compartimental abdominal ou parce que plusieurs opérations sont prévues pour la réparation abdominale. Il se compose d'un crochet et d’une boucle stérile fabriqués à partir de propylène.
 </t>
@@ -511,7 +523,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Syndrome compartimental abdominal
 Traumatisme abdominal
@@ -548,7 +562,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le patch n'est pas destiné à une implantation permanente.
 </t>
@@ -579,7 +595,9 @@
           <t>Technique opératoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La feuille souple à la boucle est suturée a l’aponévrose de droite en utilisant un fil de suture Nylon 1 en boucle. Les mailles doivent être distancées de 2 cm, 2 cm dans l’aponévrose et 1-2 cm dans la mèche. La feuille à boucles doit être dirigée vers l'extérieur, est ensuite insérée entre le péritoine pariétal et viscéral de l'autre côté de façon à couvrir contenu abdominal.
 Ensuite, la feuille à  crochets est suturée à l’aponévrose gauche de la même manière, et les crochets sont légèrement pressés contre les boucles de la feuille de boucle. En raison de l'hypertension massive péritonéale dans ce cas, la feuille à crochet n'a pas besoin d’être coupée pour s'adapter à l'ouverture de la plaie.
@@ -611,10 +629,12 @@
           <t>Avantages cliniques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'utilisation du Patch Wittmann a montré un taux nettement plus élevé de fermeture aponévrotique primaire après la fermeture abdominale temporaire par rapport à une fermeture sous vide ou bien après l'utilisation d'un sac de Bogota[1].
-L'utilisation du Patch Wittmann en association avec la réparation abdominale par étapes, permet de diminuer la mortalité de 20 % chez les patients ayant un score APACHE II-20[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'utilisation du Patch Wittmann a montré un taux nettement plus élevé de fermeture aponévrotique primaire après la fermeture abdominale temporaire par rapport à une fermeture sous vide ou bien après l'utilisation d'un sac de Bogota.
+L'utilisation du Patch Wittmann en association avec la réparation abdominale par étapes, permet de diminuer la mortalité de 20 % chez les patients ayant un score APACHE II-20.</t>
         </is>
       </c>
     </row>
@@ -642,7 +662,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Patch Wittmann a été inventé par Dietmar H. Wittmann, MD, PhD, FACS, en 1987, tout en étant professeur de chirurgie à l'Université de Hambourg, l'école de médecine à Hambourg en Allemagne. M. Wittmann a poursuivi la recherche sur le Patch Wittmann en tant que professeur de chirurgie dans le département de chirurgie au Medical College of Wisconsin.
 </t>
